--- a/Report_Doc.xlsx
+++ b/Report_Doc.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95496D0E-E74F-4C8A-87E6-2BE5362C70B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036A1F6-90D1-496A-9514-2BA7094EB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="Page Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Ledger" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Type</t>
   </si>
@@ -58,13 +59,28 @@
   </si>
   <si>
     <t>Nested list example</t>
+  </si>
+  <si>
+    <t>Ledger Details</t>
+  </si>
+  <si>
+    <t>Sections in Brief</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Preface Section =&gt; Located above the ledger section its simply built in ITPdfPTable</t>
+  </si>
+  <si>
+    <t>..\Downloads\Report Library\Preface section Code.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +101,14 @@
       <sz val="12"/>
       <color rgb="FF0079BF"/>
       <name val="Tahoma-Bold"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,10 +134,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -125,8 +150,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,6 +387,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4610100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7210425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1847850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C060D6-C972-00A9-6C76-A2944C0D49C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4610100" y="990600"/>
+          <a:ext cx="7334250" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -719,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0967F-9D4B-4352-AB3B-51A12E9818BB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -740,4 +833,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DE52E-9C06-46ED-9532-8B2C9E6FAA7E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="63" customHeight="1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="147" customHeight="1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A3AD6441-AB77-4271-BAC7-A6453DD58C6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Report_Doc.xlsx
+++ b/Report_Doc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\ReportLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95496D0E-E74F-4C8A-87E6-2BE5362C70B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33629C5D-DE6D-4895-82AA-59C2446C3821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Nested list example</t>
+  </si>
+  <si>
+    <t>Multi-column layout using ITPdfpTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextReportBuilder textBuilder = GetTextBuilderMultiColumn(2, true, 0f, 0);</t>
+  </si>
+  <si>
+    <t>Height limited irregular multi-column layout using MultiColumnText</t>
+  </si>
+  <si>
+    <t>Polygonal multi-column layout</t>
   </si>
 </sst>
 </file>
@@ -356,6 +368,187 @@
         <a:xfrm>
           <a:off x="5343525" y="8972550"/>
           <a:ext cx="5866667" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8171444</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2476208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA5806E-BDBC-BE74-D807-3300C945D191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="333375"/>
+          <a:ext cx="8047619" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2406935</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5847619</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4029075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58EB650-9626-2A6B-CC34-4DB4B1266A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9179210" y="2800350"/>
+          <a:ext cx="3440684" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7961918</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1819056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0063EEA2-DA48-D2EF-5BB2-04AACB8EF47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="7038975"/>
+          <a:ext cx="7857143" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7066562</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5098887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3428A78-B47D-04B9-8C46-D3150CDA0DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="9182101"/>
+          <a:ext cx="5914037" cy="4736936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,14 +859,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCCAA2-0B2A-475D-88D7-AB4291A3E338}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="111.42578125" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -717,16 +911,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0967F-9D4B-4352-AB3B-51A12E9818BB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="101.5703125" customWidth="1"/>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -737,7 +931,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="205.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="328.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="145.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report_Doc.xlsx
+++ b/Report_Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\ReportLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036A1F6-90D1-496A-9514-2BA7094EB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362DDF-91A0-48E3-BA21-A93644E2CDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -70,10 +70,69 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Preface Section =&gt; Located above the ledger section its simply built in ITPdfPTable</t>
-  </si>
-  <si>
     <t>..\Downloads\Report Library\Preface section Code.txt</t>
+  </si>
+  <si>
+    <t>Multi-column layout using ITPdfpTable</t>
+  </si>
+  <si>
+    <t>Multi-column layout using MultiColumnText
+TextReportBuilder textBuilder = GetTextBuilderMultiColumn(2, true, 0f, 0);</t>
+  </si>
+  <si>
+    <t>Height limited regular multi-column layout using MultiColumnText</t>
+  </si>
+  <si>
+    <t>TextReportBuilder example using MultiColumnText - Other features - Polygonal columns</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preface Section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; Located above the ledger section its simply built in ITPdfPTable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ledger tables format section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt;The example illustrates a basic styles ledger reports  that has a total line</t>
+    </r>
+  </si>
+  <si>
+    <t>Ledger tables format Sample 1</t>
   </si>
 </sst>
 </file>
@@ -138,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,6 +210,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,6 +463,187 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7152482</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1866704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F73DAA-7B7E-9314-DECB-A316609B21F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="485775"/>
+          <a:ext cx="6342857" cy="1571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5895196</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5169124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE05FC31-BF97-7059-0D09-BEB41F705BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="2657475"/>
+          <a:ext cx="4390246" cy="5054824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1457160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D200D430-EB7F-969F-FAE1-9708B0AF3666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="7858125"/>
+          <a:ext cx="5705475" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6114269</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4296345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C622A5-A3BB-E9F2-2F60-D352AA0845D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="9534525"/>
+          <a:ext cx="5047469" cy="4201095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4610100</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -439,6 +685,67 @@
         <a:xfrm>
           <a:off x="4610100" y="990600"/>
           <a:ext cx="7334250" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2280396</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5829299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4729272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A5A63E-AF8F-02BE-F38F-7482B0F27F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7014321" y="3362325"/>
+          <a:ext cx="3548903" cy="4605447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,7 +1067,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,16 +1117,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0967F-9D4B-4352-AB3B-51A12E9818BB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="101.5703125" customWidth="1"/>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+    <col min="2" max="2" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -830,24 +1137,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="185.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="408" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="354.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DE52E-9C06-46ED-9532-8B2C9E6FAA7E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
     <col min="2" max="2" width="111.140625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -867,11 +1195,21 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="147" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="388.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Report_Doc.xlsx
+++ b/Report_Doc.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\ReportLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362DDF-91A0-48E3-BA21-A93644E2CDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158DFCEA-AAED-45D1-B8E7-CE4FE58F85C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{0B3F22F2-491E-4F7F-8F4D-4259CE4335A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
-    <sheet name="Page Layout" sheetId="2" r:id="rId2"/>
-    <sheet name="Ledger" sheetId="3" r:id="rId3"/>
+    <sheet name="List Type" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="List_Type" sheetId="9" r:id="rId2"/>
+    <sheet name="Add New Report" sheetId="10" r:id="rId3"/>
+    <sheet name="CloseDocument" sheetId="5" r:id="rId4"/>
+    <sheet name="Page Layout" sheetId="2" r:id="rId5"/>
+    <sheet name="Page No in Page Footer" sheetId="6" r:id="rId6"/>
+    <sheet name="ReplaceConditionalField in 5" sheetId="7" r:id="rId7"/>
+    <sheet name="ReplaceConditionalField in 6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -59,18 +64,6 @@
   </si>
   <si>
     <t>Nested list example</t>
-  </si>
-  <si>
-    <t>Ledger Details</t>
-  </si>
-  <si>
-    <t>Sections in Brief</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>..\Downloads\Report Library\Preface section Code.txt</t>
   </si>
   <si>
     <t>Multi-column layout using ITPdfpTable</t>
@@ -86,6 +79,50 @@
     <t>TextReportBuilder example using MultiColumnText - Other features - Polygonal columns</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Refrence</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /// &lt;summary&gt;
+        /// Interest Crediting Ledger Page First Page
+        /// &lt;/summary&gt;
+        public String InterestCreditingPages
+        {
+            get { return _interestCreditingPages; }
+            set { _interestCreditingPages = value; }
+        }
+        private String _interestCreditingPages = String.Empty;</t>
+  </si>
+  <si>
+    <t>Code Snippet of SupplementalInput.cs file 
+Create InterestCreditingPages property in SupplementalInput.cs file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /// &lt;summary&gt;
+        /// Gets the group header list.
+        /// &lt;/summary&gt;
+        /// &lt;returns&gt;&lt;/returns&gt;
+        protected override ArrayList GetGroupHeaderList()
+        {
+            if (InputSupplement.InterestCreditingPages == String.Empty)
+                InputSupplement.InterestCreditingPages = _reportDocument.CurrentPageNumber.ToString();          
+            ArrayList groupHeaderList = new ArrayList();            
+            return groupHeaderList;
+        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code Snippet of CloseDocument function of ReportBase.Cs File
+In CloseDocument method we have replace </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -95,7 +132,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Preface Section</t>
+      <t>InterestCreditingPages</t>
     </r>
     <r>
       <rPr>
@@ -105,10 +142,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =&gt; Located above the ledger section its simply built in ITPdfPTable</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> text by  InputSupplement.InterestCreditingPages variable        </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">public override void BuildDetailSection()
+{  
+         ITPdfPTable iTPdfPTableMain = new ITPdfPTable(1, 100, 5, 0, Rectangle.NO_BORDER, this);
+         iTPdfPTableMain.AddBlankColumn(3);
+         iTPdfPTableMain.AddBlankColumn(97);
+         iTPdfPTableMain.AddCell(GetDetailCell2(""ISDP_IntrestCrediting_Para1""));
+         _reportDocument.Add(iTPdfPTableMain);
+}
+/// &lt;summary&gt;
+/// Returns a ITPdfPTable Table
+/// &lt;/summary&gt;     
+protected ITPdfPTable GetDetailCell2(String KeyName)
+{
+         ITPdfPTable iTPdfPTable = new ITPdfPTable(2, 100, 0, 0, 0, this);
+         iTPdfPTable.AddBlankColumns(1.5f, 98.5f);
+         iTPdfPTable.SetPaddings(0.0f, 0, 0, 10);
+         iTPdfPTable.AddCell(base.ReadFromReportTextHelper(""Detail"", ""ParaDot""), iTextSharp.text.Rectangle.ALIGN_LEFT, 0, 0, 1);
+         iTPdfPTable.AddCell(base.ReadFromTextHelperForTemplate(""Detail"", KeyName, iTextSharp.text.Rectangle.ALIGN_LEFT, iTPdfPTable, 2, 1),                     iTextSharp.text.Rectangle.ALIGN_LEFT);
+         iTPdfPTable.SetPaddings(0.0f, 0, 10, 2);
+         return iTPdfPTable;
+} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         /// &lt;summary&gt;
+        /// Closes the document.
+        /// &lt;/summary&gt;
+        /// &lt;param name="pdfWriter"&gt;The PDF writer.&lt;/param&gt;
+        /// &lt;param name="document"&gt;The document.&lt;/param&gt;
+        protected override void CloseDocument(iTextSharp.text.pdf.PdfWriter pdfWriter, Document document)
+        {            
+            for (Int32 loop = 0; loop &lt; _reportDocument.CurrentPageNumber; loop++)
+            {    
+                //Replace InterestCreditingPages text by  InputSupplement.InterestCreditingPages varivle         
+                base.ReplaceTextInTemplate("InterestCreditingPages", InputSupplement.InterestCreditingPages);              
+            }
+            //Call base method
+            base.CloseDocument(pdfWriter, document);
+        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;paragraph reportID="24" name="Detail" Key="ISDP_IntrestCrediting_Para1"&gt;
+ &lt;p&gt;&lt;font face="Swis721 BT Bold"&gt;Interest Crediting and Accumulation Value Details for Each Allocated Interest Crediting Strategy (Page </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -118,7 +199,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ledger tables format section</t>
+      <t>InterestCreditingPages</t>
     </r>
     <r>
       <rPr>
@@ -128,11 +209,529 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =&gt;The example illustrates a basic styles ledger reports  that has a total line</t>
-    </r>
-  </si>
-  <si>
-    <t>Ledger tables format Sample 1</t>
+      <t xml:space="preserve">):&lt;/font&gt;&lt;font face="Swis721 Md BT Medium"&gt; This scenario illustrates the values associated with each individual interest crediting strategy from the specific period scenario on the previous page.&lt;/font&gt; &lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="24" name="Detail" Key="ParaDot"&gt;
+&lt;p&gt;&lt;font face="Swis721 Md BT Medium"&gt;•&lt;/font&gt; &lt;/p&gt;
+&lt;/paragraph&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code Snippet of IllustrationScenarioDisclosurePage.xml Page 
+IllustrationScenarioDisclosurePage print befor InterestCreditingIllustration page. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">InterestCreditingPages </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">text will repalce by  InterestCreditingPages first page number
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Code Snippet of InterestCreditingIllustration.cs Page
+Fill  in  InputSupplement.InterestCreditingPages variable of first page number of report.</t>
+  </si>
+  <si>
+    <t>Code Snippet of IllustrationScenarioDisclosurePage.cs file 
+this page print befor InterestCreditingIllustration page</t>
+  </si>
+  <si>
+    <t>Give Page Number reference before Page Print in previous page</t>
+  </si>
+  <si>
+    <t>Showing Page Number in Footer</t>
+  </si>
+  <si>
+    <t>/// &lt;summary&gt;
+/// override method used to set page Footer
+/// &lt;/summary&gt;
+/// &lt;returns&gt;ITPdfPTable&lt;/returns&gt;
+protected override ITPdfPTable GetPageFooter()
+{
+    ITPdfPTable iTPdfPTable = new ITPdfPTable(1, DocumentFrame.ContentWidthInPercent, 0, 0, Rectangle.NO_BORDER);
+    iTPdfPTable.AddColumns(DocumentFrame.ContentWidth, 100f);
+    iTPdfPTable.AddCell(base.ReadFromCommonTextHelperForTemplate("PageNoCaption", Rectangle.ALIGN_CENTER, iTPdfPTable, 1, 0, true), Rectangle.ALIGN_CENTER, Rectangle.NO_BORDER, 1);
+    return iTPdfPTable;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Snippet of ReportBase.cs file </t>
+  </si>
+  <si>
+    <t>&lt;paragraph Key="PageNoCaption" projectionType="Assumed"&gt;
+   &lt;p&gt;
+      &lt;font size="9" face="Libre Franklin"&gt;Page n of m&lt;/font&gt;
+    &lt;/p&gt;
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Snippet of CommonText.xml file </t>
+  </si>
+  <si>
+    <r>
+      <t>switch (eKey)
+{ .....
+  .....
+  case "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WithdrawalsFirstRow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":
+	if(InputSupplement.HasGMWB)
+	       fieldData = InputSupplement.GMWBWithdrawalPerValue;
+	break;
+  case "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IncomeActivationAge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":
+	fieldData = InputSupplement.IncomeActivationAge.ToString();
+	break;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;fields&gt;
+	....
+  ....
+  &lt;replaceField code="WithdrawalsFirstRow" formatProvider="ProviderNone"&gt;&lt;/replaceField&gt;
+  &lt;replaceField code="IncomeActivationAge" formatProvider="ProviderNone"&gt;&lt;/replaceField&gt; 
+&lt;/fields&gt;
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code Snippet of Field.xml file there we will add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WithdrawalsFirstRow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IncomeActivationAge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of replaceable field.</t>
+    </r>
+  </si>
+  <si>
+    <t>Code Snippet of ConditionFields.cs file there we will add swith case for Replaceable  conditional field code.</t>
+  </si>
+  <si>
+    <t>ReplaceConditionalField in Report version 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;paragraph Key="AC_ProductOffers_Para1To2"&gt;
+  &lt;p&gt;&lt;font face ="Allianz Neo Condensed Bold" size ="10" color="#005060"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[!VariableText1] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OFFERS PROTECTION NOW AND FINANCIAL BENEFITS FOR THE LONG TERM&lt;/font&gt;&lt;/p&gt;         
+ &lt;/paragraph&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextReportBuilder textBuilder = GetTextBuilder();
+ UpdateVariableText(1, InputSupplement.ProductNameShort.ToUpper()); 
+ textBuilder.AddItemXML("AC_ProductOffers_Para1To2");</t>
+  </si>
+  <si>
+    <r>
+      <t>Code Snippet of Report xml,  there</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [!VariableText1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is replaceable field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code Snippet of Reprot cs,  there </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UpdateVariableText method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use for replace xml field.</t>
+    </r>
+  </si>
+  <si>
+    <t>Client Name : ALL6
+Module Name : UL</t>
+  </si>
+  <si>
+    <t>Client Name : AIG5
+Module Name: FSFIA</t>
+  </si>
+  <si>
+    <t>Client Name : Pro6
+Module Name: FSFIA</t>
+  </si>
+  <si>
+    <t>Client Name : AIG
+Module Name: FIA</t>
+  </si>
+  <si>
+    <t>Code Snippet of Report.cs</t>
+  </si>
+  <si>
+    <t>Code Snippet of Report.xml</t>
+  </si>
+  <si>
+    <t>&lt;paragraph reportID="1" name="Detail" Key="XMLPara_UnorderedListExamplePara1" &gt;
+	&lt;p&gt;SetUnorderedList("-", 1) is used to set the following list items. "-" and 1 is passed as parameters to set the list symbol and the list level.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_UnorderedListExampleList1" &gt;
+	&lt;p&gt;List item 1: AddListItemXML() is used for the list items.&lt;/p&gt;
+	&lt;p&gt;List item 2: All the items in this list are in one paragraph node in TextReportSample.xml&lt;/p&gt;
+	&lt;p&gt;List item 3&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExamplePara1" &gt;
+	&lt;p&gt;SetOrderedList('a') is used to set the following list items. 'A' is the seed character which is the list symbol for the first item.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExampleList1" &gt;
+	&lt;p&gt;List item 1 which is from XML.&lt;/p&gt;
+	&lt;p&gt;List item 2 which is from XML.&lt;/p&gt;						
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TextReportBuilder textBuilder = new TextReportBuilder(this);
+//textBuilder.SetFonts(fontContent, fontContentBold);
+textBuilder.DefaultFont = _fontContent;
+textBuilder.SetSpaces(5.0f, 1.5f, 5.0f, 0.0f, 1.5f);
+Font _fontContentBold = ITItextFontFactory.GetFont("Tahoma Bold", 10, Font.NORMAL);
+textBuilder.AddSubhead("Ordered list example");
+textBuilder.AddItemXML("XMLPara_OrderedListExamplePara1");
+textBuilder.SetOrderedList('A');
+textBuilder.AddListItemXML("XMLPara_OrderedListExampleList1");
+textBuilder.AddListItem("List item 3: The font is specified exclusively through AddListItem().", _fontContentBold);
+textBuilder.AddItemXML("XMLPara_OrderedListExamplePara2");
+textBuilder.SetOrderedList('a', 1, "(", ")");
+textBuilder.AddListItemXML("XMLPara_OrderedListExampleList2");            
+textBuilder.AddToDocument(_reportDocument);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextReportBuilder textBuilder = new TextReportBuilder(this);
+//textBuilder.SetFonts(fontContent, fontContentBold);
+textBuilder.DefaultFont = _fontContent;
+textBuilder.SetSpaces(5.0f, 1.5f, 5.0f, 0.0f, 1.5f);           
+Font _fontContentBold = ITItextFontFactory.GetFont("Tahoma Bold", 10, Font.NORMAL);
+textBuilder.AddSubhead("Bulleted(Unordered) list example");
+textBuilder.AddItem("SetUnorderedList() is used to set the following list items. \u2022 is the default list symbol.");
+textBuilder.SetUnorderedList();
+textBuilder.AddListItem("List item 1: AddListItem() is used for this list item. This is from plain text.");
+phrase = new Phrase("AddListItem(Phrase) is used for this item.", _fontContent);
+phrase.Add(new Chunk(" This list item is an instance of Phrase", _fontContentBold));
+textBuilder.AddListItem(phrase);
+textBuilder.AddItemXML("XMLPara_UnorderedListExamplePara1");
+textBuilder.SetUnorderedList("-", 1);
+textBuilder.AddListItemXML("XMLPara_UnorderedListExampleList1");           
+textBuilder.AddToDocument(_reportDocument);</t>
+  </si>
+  <si>
+    <t>&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExamplePara1" &gt;
+	&lt;p&gt;SetOrderedList('a') is used to set the following list items. 'A' is the seed character which is the list symbol for the first item.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExampleList1" &gt;
+	&lt;p&gt;List item 1 which is from XML.&lt;/p&gt;
+	&lt;p&gt;List item 2 which is from XML.&lt;/p&gt;						
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExamplePara2" &gt;
+	&lt;p&gt;SetOrderedList('a', 1, "(", ")") is used to set the following list items. The seed character is 'a', indentation level is 1, and the list symbols are put in parenthesis.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_OrderedListExampleList2" &gt;
+	&lt;p&gt;List item 1&lt;/p&gt;
+	&lt;p&gt;List item 2&lt;/p&gt;
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextReportBuilder textBuilder = new TextReportBuilder(this);
+//textBuilder.SetFonts(fontContent, fontContentBold);
+textBuilder.DefaultFont = _fontContent;
+textBuilder.SetSpaces(5.0f, 1.5f, 5.0f, 0.0f, 1.5f);
+Font _fontContentBold = ITItextFontFactory.GetFont("Tahoma Bold", 10, Font.NORMAL);
+textBuilder.AddSubhead("Numbered list example + Grouping example");
+textBuilder.AddItem("All items added between SetGroup() and ClearGroup() methods are always printed in the same page(or column).");
+textBuilder.AddItemXML("XMLPara_NumberedListExamplePara1");
+textBuilder.SetNumberedList();
+textBuilder.AddListItemXML("XMLPara_NumberedListExampleList1");
+textBuilder.AddItemXML("XMLPara_NumberedListExamplePara2");            
+textBuilder.SetNumberedList(11, 1, String.Empty, ")");
+textBuilder.AddListItemXML("XMLPara_NumberedListExampleList2");	
+textBuilder.AddToDocument(_reportDocument);</t>
+  </si>
+  <si>
+    <t>Numbered list example</t>
+  </si>
+  <si>
+    <t>&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NumberedListExamplePara1" &gt;
+	&lt;p&gt;SetNumberedList() is used to set the following list items.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NumberedListExampleList1" &gt;
+	&lt;p&gt;Numbered list item 1&lt;/p&gt;
+	&lt;p&gt;Numbered list item 2&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NumberedListExamplePara2" &gt;
+	&lt;p&gt;SetNumberedList(3, 1, String.Empty, ")") is used to set the following list items. The seed value is 11, indentation level is 1, and the list symbols are followed by a closing parenthesis.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NumberedListExampleList2" &gt;
+	&lt;p&gt;Numbered list item 11&lt;/p&gt;
+	&lt;p&gt;Numbered list item 12&lt;/p&gt;
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TextReportBuilder textBuilder = new TextReportBuilder(this);
+//textBuilder.SetFonts(fontContent, fontContentBold);
+textBuilder.DefaultFont = _fontContent;
+textBuilder.SetSpaces(5.0f, 1.5f, 5.0f, 0.0f, 1.5f);
+Font _fontContentBold = ITItextFontFactory.GetFont("Tahoma Bold", 10, Font.NORMAL);
+textBuilder.AddSubhead("Roman list example");
+textBuilder.AddItemXML("XMLPara_RomanListExamplePara1");
+textBuilder.SetRomanList(false, 1);
+textBuilder.AddListItemXML("XMLPara_RomanListExampleList1");
+textBuilder.AddItemXML("XMLPara_RomanListExamplePara2");
+textBuilder.SetRomanList(true, 1);
+textBuilder.AddListItemXML("XMLPara_RomanListExampleList2");            
+textBuilder.AddToDocument(_reportDocument);</t>
+  </si>
+  <si>
+    <t>&lt;paragraph reportID="1" name="Detail" Key="XMLPara_RomanListExamplePara1" &gt;
+	&lt;p&gt;SetRomanList(false, 1) is used to set the following list items.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_RomanListExampleList1" &gt;
+	&lt;p&gt;Roman list item 1 with capital letter&lt;/p&gt;
+	&lt;p&gt;Roman list item 2 with capital letter&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_RomanListExamplePara2" &gt;
+	&lt;p&gt;SetRomanList(true, 1) is used to set the following list items. "true" sets the symbol characters to small lettters.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_RomanListExampleList2" &gt;
+	&lt;p&gt;Roman list item 1&lt;/p&gt;
+	&lt;p&gt;Roman list item 2&lt;/p&gt;
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t>TextReportBuilder textBuilder = new TextReportBuilder(this);
+//textBuilder.SetFonts(fontContent, fontContentBold);
+textBuilder.DefaultFont = _fontContent;
+textBuilder.SetSpaces(5.0f, 1.5f, 5.0f, 0.0f, 1.5f);
+Font _fontContentBold = ITItextFontFactory.GetFont(""Tahoma Bold"", 10, Font.NORMAL);
+Int32 nextSeed1 = 0;
+Int32 nextSeed2 = 0;
+textBuilder.AddSubhead(""Nested list example"");
+textBuilder.AddItemXML(""XMLPara_NestedListExamplePara1"");
+textBuilder.SetNumberedList();
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList1"");
+nextSeed1 = textBuilder.ListCount;
+textBuilder.SetOrderedList('a', 2, String.Empty, String.Empty);
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList1_SubList1"");
+nextSeed2 = textBuilder.ListCount;
+textBuilder.SetUnorderedList(3);
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList1_SubList1_SubList1"");
+textBuilder.SetNumberedList(nextSeed1 + 1);
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList2"");
+textBuilder.SetOrderedList(Convert.ToChar(Convert.ToInt32('a') + nextSeed2), 2, String.Empty, String.Empty);
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList2_SubList1"");
+textBuilder.SetUnorderedList(3);
+textBuilder.AddListItemXML(""XMLPara_NestedListExampleList2_SubList1_SubList1"");
+textBuilder.AddToDocument(_reportDocument);</t>
+  </si>
+  <si>
+    <t>&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExamplePara1" &gt;
+	&lt;p&gt;Various methods are used to set the following nested list items. Look at the code for details.&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList1" &gt;
+	&lt;p&gt;Level 1 list item 1&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList2" &gt;
+	&lt;p&gt;Level 1 list item 2&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList1_SubList1" &gt;
+	&lt;p&gt;Level 2 list item 1&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList2_SubList1" &gt;
+	&lt;p&gt;Level 2 list item 2&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList1_SubList1_SubList1" &gt;
+	&lt;p&gt;Level 3 list item 1&lt;/p&gt;
+	&lt;p&gt;Level 3 list item 2&lt;/p&gt;
+&lt;/paragraph&gt;
+&lt;paragraph reportID="1" name="Detail" Key="XMLPara_NestedListExampleList2_SubList1_SubList1" &gt;
+	&lt;p&gt;Level 3 list item 3&lt;/p&gt;
+	&lt;p&gt;Level 3 list item 4&lt;/p&gt;
+&lt;/paragraph&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #region Report ID Enums
+    /// &lt;summary&gt;
+    /// This enum describes the reports that can be rendered in for this product.
+    /// &lt;/summary&gt;
+    public enum ReportIDFSFIA
+    {
+        /// &lt;summary&gt;
+        /// Cover Page ID
+        /// &lt;/summary&gt;
+        CoverPageID = 1
+   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Snippet of Constants.cs file in this file add new Cover Page Report Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Snippet of ReportConfig.xml file in this file add new Cover Page Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;reportProperty reportID="ReportIDFSFIA.CoverPageID" modelType="FS_ModelType.Current"
+					isEnabled="true" validate="false" availabilityDate="2004-06-22"
+					pageNumberSetting="FS_ReportPageNumbering.Reset" reportSelectView="FS_ReportSelectView.Required"
+					isSelected="true" isMultiRun="false" watermark = "false" textWatermark="true"&gt;
+          &lt;pageTitle&gt;Cover Page&lt;/pageTitle&gt;
+          &lt;selectionDescription&gt;Cover Page&lt;/selectionDescription&gt;
+          &lt;bookmarkDescription&gt;Cover Page&lt;/bookmarkDescription&gt;          
+          &lt;pdfFileName/&gt;
+          &lt;xmlFileName&gt;CoverPage.xml&lt;/xmlFileName&gt;
+					&lt;flyOverHelp/&gt;
+					&lt;classType&gt;InsTech.ForeSight.SalesPortal.Annuity.FSFIA.iText.CoverPage&lt;/classType&gt;
+					&lt;assemblyName&gt;SalesPortal.FSFIA.iTextSharp, Version=6, Culture=neutral, PublicKeyToken=928c297f0d8e5e72&lt;/assemblyName&gt;
+        &lt;/reportProperty&gt;</t>
   </si>
 </sst>
 </file>
@@ -162,15 +761,14 @@
       <name val="Tahoma-Bold"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +781,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,12 +796,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,16 +827,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,7 +863,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
@@ -245,9 +872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6991350</xdr:colOff>
+      <xdr:colOff>6987540</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2142900</xdr:rowOff>
+      <xdr:rowOff>2144805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,7 +918,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>7010400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2219069</xdr:rowOff>
+      <xdr:rowOff>2220974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -333,7 +960,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6877051</xdr:colOff>
+      <xdr:colOff>6873241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1980968</xdr:rowOff>
     </xdr:to>
@@ -423,7 +1050,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>6057167</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>18814</xdr:rowOff>
+      <xdr:rowOff>22624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -461,6 +1088,346 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6987540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2144805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DE8866-6B20-4BFF-B4C9-89914A255F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5465445" y="525780"/>
+          <a:ext cx="6825615" cy="1801905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6652260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2064764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91A2B3D-A6FC-4C50-97F1-C2B58B8C4AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901440" y="9395460"/>
+          <a:ext cx="6400800" cy="2049524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7002780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1918103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B130AA2-B07F-4A83-83BE-7BBF587FBCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="18006060"/>
+          <a:ext cx="6835140" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7262878</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1622879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2318C79-1F8D-4060-A0BF-C1F541CE61F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="26159460"/>
+          <a:ext cx="7095238" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6201947</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1906669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD83B0F-9F6B-4CAA-A620-41B3D1A07C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985260" y="33703260"/>
+          <a:ext cx="5866667" cy="1883809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5832289</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5134533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2DE936-0AB8-4E8F-F7BA-B612E5082CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5463540" y="121921"/>
+          <a:ext cx="4041589" cy="5195492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10269855</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2916555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F93535C-6402-3894-CB50-F834F344F22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4493895" y="407670"/>
+          <a:ext cx="10201275" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -470,7 +1437,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7152482</xdr:colOff>
+      <xdr:colOff>7142957</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1866704</xdr:rowOff>
     </xdr:to>
@@ -514,9 +1481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5895196</xdr:colOff>
+      <xdr:colOff>5885671</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5169124</xdr:rowOff>
+      <xdr:rowOff>5165314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:colOff>5850255</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1457160</xdr:rowOff>
+      <xdr:rowOff>1464780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -602,9 +1569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6114269</xdr:colOff>
+      <xdr:colOff>6118079</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4296345</xdr:rowOff>
+      <xdr:rowOff>4288725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -640,27 +1607,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4610100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7210425</xdr:colOff>
+      <xdr:colOff>7978140</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1847850</xdr:rowOff>
+      <xdr:rowOff>1600200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C060D6-C972-00A9-6C76-A2944C0D49C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCBF161-4756-6D96-EF2D-680C5A006BEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,8 +1650,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4610100" y="990600"/>
-          <a:ext cx="7334250" cy="1847850"/>
+          <a:off x="4486275" y="657225"/>
+          <a:ext cx="7781925" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,25 +1670,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2280396</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5829299</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4729272</xdr:rowOff>
+      <xdr:colOff>6835140</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3107055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A5A63E-AF8F-02BE-F38F-7482B0F27F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78CF8C2-9935-2B30-0185-E1152A1DF3A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +1702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -744,8 +1716,74 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7014321" y="3362325"/>
-          <a:ext cx="3548903" cy="4605447"/>
+          <a:off x="4276725" y="424815"/>
+          <a:ext cx="6231255" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8039100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2497455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2D7D7E-BA81-AC13-D1DC-FA84929FAE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3830955" y="525780"/>
+          <a:ext cx="7875270" cy="2337435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,47 +2102,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCCAA2-0B2A-475D-88D7-AB4291A3E338}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="111.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="206.25" customHeight="1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="206.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="180" customHeight="1">
+    <row r="3" spans="1:3" ht="180" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="170.25" customHeight="1">
+    <row r="4" spans="1:3" ht="170.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="132.75" customHeight="1">
+    <row r="5" spans="1:3" ht="132.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="149.25" customHeight="1">
+    <row r="6" spans="1:3" ht="149.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1116,45 +2158,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0967F-9D4B-4352-AB3B-51A12E9818BB}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C28690-D4B3-4F35-8B50-E2207AC656D2}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" customWidth="1"/>
-    <col min="2" max="2" width="119" customWidth="1"/>
+    <col min="1" max="1" width="53.21875" customWidth="1"/>
+    <col min="2" max="2" width="124.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="185.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="408" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="135" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="354.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
+    <row r="2" spans="1:3" ht="206.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="273.60000000000002">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="216">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="183" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="261" customHeight="1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="216">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="172.2" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="230.4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="216">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="159.6" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="230.4">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="201.6">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="155.4" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="374.4">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="331.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1164,59 +2299,386 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DE52E-9C06-46ED-9532-8B2C9E6FAA7E}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4D8B73-60AC-469D-8DB6-BC5856662820}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="111.140625" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="106.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.2" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="158.4">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="201.6">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98311C4-A5B8-4BA0-969D-43799C85E357}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="64.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="158.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="233.4" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="129.6">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="187.2">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="152.4" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="230.4">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="357" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0967F-9D4B-4352-AB3B-51A12E9818BB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="92.44140625" customWidth="1"/>
+    <col min="2" max="2" width="119" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="185.25" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63" customHeight="1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" ht="408" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="135" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="354.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B355C61A-4466-49CA-83BA-EAABA9C8B8EE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="132.88671875" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="152.4" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="147" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="388.5" customHeight="1">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="216">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="82.8" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A3AD6441-AB77-4271-BAC7-A6453DD58C6F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716DDCE3-EC91-4340-AAF1-583E50644D3F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="124.77734375" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="247.2" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="172.8">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="100.8">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93364F3-B8FB-44D2-A117-4841EBE9B2AC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="133.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" ht="204.6" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72">
+      <c r="A5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>